--- a/project.xlsx
+++ b/project.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="17235" windowHeight="9015" activeTab="5"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="17235" windowHeight="9015" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Arduino_text" sheetId="6" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2227" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2337" uniqueCount="338">
   <si>
     <t>I</t>
   </si>
@@ -721,6 +721,336 @@
   </si>
   <si>
     <t>current</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>022</t>
+  </si>
+  <si>
+    <t>021</t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>019</t>
+  </si>
+  <si>
+    <t>018</t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>016</t>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>014</t>
+  </si>
+  <si>
+    <t>023</t>
+  </si>
+  <si>
+    <t>024</t>
+  </si>
+  <si>
+    <t>025</t>
+  </si>
+  <si>
+    <t>026</t>
+  </si>
+  <si>
+    <t>027</t>
+  </si>
+  <si>
+    <t>028</t>
+  </si>
+  <si>
+    <t>029</t>
+  </si>
+  <si>
+    <t>030</t>
+  </si>
+  <si>
+    <t>031</t>
+  </si>
+  <si>
+    <t>032</t>
+  </si>
+  <si>
+    <t>033</t>
+  </si>
+  <si>
+    <t>034</t>
+  </si>
+  <si>
+    <t>035</t>
+  </si>
+  <si>
+    <t>044</t>
+  </si>
+  <si>
+    <t>043</t>
+  </si>
+  <si>
+    <t>042</t>
+  </si>
+  <si>
+    <t>041</t>
+  </si>
+  <si>
+    <t>040</t>
+  </si>
+  <si>
+    <t>039</t>
+  </si>
+  <si>
+    <t>038</t>
+  </si>
+  <si>
+    <t>037</t>
+  </si>
+  <si>
+    <t>036</t>
+  </si>
+  <si>
+    <t>045</t>
+  </si>
+  <si>
+    <t>046</t>
+  </si>
+  <si>
+    <t>047</t>
+  </si>
+  <si>
+    <t>048</t>
+  </si>
+  <si>
+    <t>049</t>
+  </si>
+  <si>
+    <t>050</t>
+  </si>
+  <si>
+    <t>051</t>
+  </si>
+  <si>
+    <t>052</t>
+  </si>
+  <si>
+    <t>053</t>
+  </si>
+  <si>
+    <t>054</t>
+  </si>
+  <si>
+    <t>055</t>
+  </si>
+  <si>
+    <t>056</t>
+  </si>
+  <si>
+    <t>057</t>
+  </si>
+  <si>
+    <t>066</t>
+  </si>
+  <si>
+    <t>065</t>
+  </si>
+  <si>
+    <t>064</t>
+  </si>
+  <si>
+    <t>063</t>
+  </si>
+  <si>
+    <t>062</t>
+  </si>
+  <si>
+    <t>061</t>
+  </si>
+  <si>
+    <t>060</t>
+  </si>
+  <si>
+    <t>059</t>
+  </si>
+  <si>
+    <t>058</t>
+  </si>
+  <si>
+    <t>067</t>
+  </si>
+  <si>
+    <t>068</t>
+  </si>
+  <si>
+    <t>069</t>
+  </si>
+  <si>
+    <t>070</t>
+  </si>
+  <si>
+    <t>071</t>
+  </si>
+  <si>
+    <t>072</t>
+  </si>
+  <si>
+    <t>073</t>
+  </si>
+  <si>
+    <t>074</t>
+  </si>
+  <si>
+    <t>075</t>
+  </si>
+  <si>
+    <t>076</t>
+  </si>
+  <si>
+    <t>077</t>
+  </si>
+  <si>
+    <t>078</t>
+  </si>
+  <si>
+    <t>079</t>
+  </si>
+  <si>
+    <t>088</t>
+  </si>
+  <si>
+    <t>087</t>
+  </si>
+  <si>
+    <t>086</t>
+  </si>
+  <si>
+    <t>085</t>
+  </si>
+  <si>
+    <t>084</t>
+  </si>
+  <si>
+    <t>083</t>
+  </si>
+  <si>
+    <t>082</t>
+  </si>
+  <si>
+    <t>081</t>
+  </si>
+  <si>
+    <t>080</t>
+  </si>
+  <si>
+    <t>089</t>
+  </si>
+  <si>
+    <t>090</t>
+  </si>
+  <si>
+    <t>091</t>
+  </si>
+  <si>
+    <t>092</t>
+  </si>
+  <si>
+    <t>093</t>
+  </si>
+  <si>
+    <t>094</t>
+  </si>
+  <si>
+    <t>095</t>
+  </si>
+  <si>
+    <t>096</t>
+  </si>
+  <si>
+    <t>097</t>
+  </si>
+  <si>
+    <t>098</t>
+  </si>
+  <si>
+    <t>099</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>102</t>
   </si>
 </sst>
 </file>
@@ -1397,11 +1727,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="141793920"/>
-        <c:axId val="141795712"/>
+        <c:axId val="200915712"/>
+        <c:axId val="200916288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="141793920"/>
+        <c:axId val="200915712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1411,12 +1741,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141795712"/>
+        <c:crossAx val="200916288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="141795712"/>
+        <c:axId val="200916288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1427,7 +1757,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141793920"/>
+        <c:crossAx val="200915712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8580,10 +8910,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Z47"/>
+  <dimension ref="B1:AL47"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AD11" sqref="AD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8598,8 +8928,8 @@
     <col min="57" max="64" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:26" ht="15.75" thickBot="1">
+    <row r="1" spans="2:38" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:38" ht="15.75" thickBot="1">
       <c r="C2" s="7" t="s">
         <v>24</v>
       </c>
@@ -8634,7 +8964,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="2:26" ht="15" customHeight="1">
+    <row r="3" spans="2:38" ht="15" customHeight="1">
       <c r="B3" s="4">
         <v>0</v>
       </c>
@@ -8677,7 +9007,7 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="2:26">
+    <row r="4" spans="2:38">
       <c r="B4" s="5">
         <v>1</v>
       </c>
@@ -8720,7 +9050,7 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="2:26">
+    <row r="5" spans="2:38">
       <c r="B5" s="5">
         <v>2</v>
       </c>
@@ -8763,7 +9093,7 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="2:26">
+    <row r="6" spans="2:38">
       <c r="B6" s="5">
         <v>3</v>
       </c>
@@ -8806,7 +9136,7 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="2:26">
+    <row r="7" spans="2:38">
       <c r="B7" s="5">
         <v>4</v>
       </c>
@@ -8849,7 +9179,7 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="2:26">
+    <row r="8" spans="2:38">
       <c r="B8" s="5">
         <v>5</v>
       </c>
@@ -8892,7 +9222,7 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="2:26">
+    <row r="9" spans="2:38">
       <c r="B9" s="5">
         <v>6</v>
       </c>
@@ -8935,7 +9265,7 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="2:26">
+    <row r="10" spans="2:38">
       <c r="B10" s="5">
         <v>7</v>
       </c>
@@ -8978,7 +9308,7 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
     </row>
-    <row r="11" spans="2:26">
+    <row r="11" spans="2:38">
       <c r="B11" s="5">
         <v>8</v>
       </c>
@@ -9021,7 +9351,7 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="2:26" ht="15.75" thickBot="1">
+    <row r="12" spans="2:38" ht="15.75" thickBot="1">
       <c r="B12" s="6">
         <v>9</v>
       </c>
@@ -9064,7 +9394,7 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
     </row>
-    <row r="13" spans="2:26" ht="15.75" thickBot="1">
+    <row r="13" spans="2:38" ht="15.75" thickBot="1">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -9083,7 +9413,7 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="2:26" ht="15.75" thickBot="1">
+    <row r="14" spans="2:38" ht="15.75" thickBot="1">
       <c r="C14" s="7" t="s">
         <v>24</v>
       </c>
@@ -9152,7 +9482,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="2:26" ht="15" customHeight="1">
+    <row r="15" spans="2:38" ht="15" customHeight="1">
       <c r="B15" s="4">
         <v>0</v>
       </c>
@@ -9226,8 +9556,41 @@
       <c r="Z15" s="23" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="16" spans="2:26">
+      <c r="AB15" s="45" t="s">
+        <v>228</v>
+      </c>
+      <c r="AC15" s="45" t="s">
+        <v>229</v>
+      </c>
+      <c r="AD15" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="AE15" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="AF15" s="45" t="s">
+        <v>232</v>
+      </c>
+      <c r="AG15" s="45" t="s">
+        <v>233</v>
+      </c>
+      <c r="AH15" s="45" t="s">
+        <v>234</v>
+      </c>
+      <c r="AI15" s="45" t="s">
+        <v>235</v>
+      </c>
+      <c r="AJ15" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="AK15" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="AL15" s="45" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="16" spans="2:38">
       <c r="B16" s="5">
         <v>1</v>
       </c>
@@ -9301,8 +9664,41 @@
       <c r="Z16" s="24" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="2:26">
+      <c r="AB16" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="AC16" s="45" t="s">
+        <v>242</v>
+      </c>
+      <c r="AD16" s="45" t="s">
+        <v>243</v>
+      </c>
+      <c r="AE16" s="45" t="s">
+        <v>244</v>
+      </c>
+      <c r="AF16" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG16" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="AH16" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="AI16" s="45" t="s">
+        <v>248</v>
+      </c>
+      <c r="AJ16" s="45" t="s">
+        <v>249</v>
+      </c>
+      <c r="AK16" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="AL16" s="45" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="17" spans="2:38">
       <c r="B17" s="5">
         <v>2</v>
       </c>
@@ -9376,8 +9772,41 @@
       <c r="Z17" s="15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="2:26">
+      <c r="AB17" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="AC17" s="45" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD17" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="AE17" s="45" t="s">
+        <v>253</v>
+      </c>
+      <c r="AF17" s="45" t="s">
+        <v>254</v>
+      </c>
+      <c r="AG17" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="AH17" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="AI17" s="45" t="s">
+        <v>257</v>
+      </c>
+      <c r="AJ17" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="AK17" s="45" t="s">
+        <v>259</v>
+      </c>
+      <c r="AL17" s="45" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="18" spans="2:38">
       <c r="B18" s="5">
         <v>3</v>
       </c>
@@ -9451,8 +9880,41 @@
       <c r="Z18" s="11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="2:26">
+      <c r="AB18" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="AC18" s="45" t="s">
+        <v>264</v>
+      </c>
+      <c r="AD18" s="45" t="s">
+        <v>265</v>
+      </c>
+      <c r="AE18" s="45" t="s">
+        <v>266</v>
+      </c>
+      <c r="AF18" s="45" t="s">
+        <v>267</v>
+      </c>
+      <c r="AG18" s="45" t="s">
+        <v>268</v>
+      </c>
+      <c r="AH18" s="45" t="s">
+        <v>269</v>
+      </c>
+      <c r="AI18" s="45" t="s">
+        <v>270</v>
+      </c>
+      <c r="AJ18" s="45" t="s">
+        <v>271</v>
+      </c>
+      <c r="AK18" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="AL18" s="45" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="19" spans="2:38">
       <c r="B19" s="5">
         <v>4</v>
       </c>
@@ -9526,8 +9988,41 @@
       <c r="Z19" s="11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="2:26">
+      <c r="AB19" s="45" t="s">
+        <v>272</v>
+      </c>
+      <c r="AC19" s="45" t="s">
+        <v>273</v>
+      </c>
+      <c r="AD19" s="45" t="s">
+        <v>274</v>
+      </c>
+      <c r="AE19" s="45" t="s">
+        <v>275</v>
+      </c>
+      <c r="AF19" s="45" t="s">
+        <v>276</v>
+      </c>
+      <c r="AG19" s="45" t="s">
+        <v>277</v>
+      </c>
+      <c r="AH19" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="AI19" s="45" t="s">
+        <v>279</v>
+      </c>
+      <c r="AJ19" s="45" t="s">
+        <v>280</v>
+      </c>
+      <c r="AK19" s="45" t="s">
+        <v>281</v>
+      </c>
+      <c r="AL19" s="45" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="20" spans="2:38">
       <c r="B20" s="5">
         <v>5</v>
       </c>
@@ -9601,8 +10096,41 @@
       <c r="Z20" s="11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="2:26">
+      <c r="AB20" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="AC20" s="45" t="s">
+        <v>286</v>
+      </c>
+      <c r="AD20" s="45" t="s">
+        <v>287</v>
+      </c>
+      <c r="AE20" s="45" t="s">
+        <v>288</v>
+      </c>
+      <c r="AF20" s="45" t="s">
+        <v>289</v>
+      </c>
+      <c r="AG20" s="45" t="s">
+        <v>290</v>
+      </c>
+      <c r="AH20" s="45" t="s">
+        <v>291</v>
+      </c>
+      <c r="AI20" s="45" t="s">
+        <v>292</v>
+      </c>
+      <c r="AJ20" s="45" t="s">
+        <v>293</v>
+      </c>
+      <c r="AK20" s="45" t="s">
+        <v>284</v>
+      </c>
+      <c r="AL20" s="45" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="21" spans="2:38">
       <c r="B21" s="5">
         <v>6</v>
       </c>
@@ -9676,8 +10204,41 @@
       <c r="Z21" s="11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="2:26">
+      <c r="AB21" s="45" t="s">
+        <v>294</v>
+      </c>
+      <c r="AC21" s="45" t="s">
+        <v>295</v>
+      </c>
+      <c r="AD21" s="45" t="s">
+        <v>296</v>
+      </c>
+      <c r="AE21" s="45" t="s">
+        <v>297</v>
+      </c>
+      <c r="AF21" s="45" t="s">
+        <v>298</v>
+      </c>
+      <c r="AG21" s="45" t="s">
+        <v>299</v>
+      </c>
+      <c r="AH21" s="45" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI21" s="45" t="s">
+        <v>301</v>
+      </c>
+      <c r="AJ21" s="45" t="s">
+        <v>302</v>
+      </c>
+      <c r="AK21" s="45" t="s">
+        <v>303</v>
+      </c>
+      <c r="AL21" s="45" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="22" spans="2:38">
       <c r="B22" s="5">
         <v>7</v>
       </c>
@@ -9751,8 +10312,41 @@
       <c r="Z22" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="2:26">
+      <c r="AB22" s="45" t="s">
+        <v>307</v>
+      </c>
+      <c r="AC22" s="45" t="s">
+        <v>308</v>
+      </c>
+      <c r="AD22" s="45" t="s">
+        <v>309</v>
+      </c>
+      <c r="AE22" s="45" t="s">
+        <v>310</v>
+      </c>
+      <c r="AF22" s="45" t="s">
+        <v>311</v>
+      </c>
+      <c r="AG22" s="45" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH22" s="45" t="s">
+        <v>313</v>
+      </c>
+      <c r="AI22" s="45" t="s">
+        <v>314</v>
+      </c>
+      <c r="AJ22" s="45" t="s">
+        <v>315</v>
+      </c>
+      <c r="AK22" s="45" t="s">
+        <v>306</v>
+      </c>
+      <c r="AL22" s="45" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="23" spans="2:38">
       <c r="B23" s="5">
         <v>8</v>
       </c>
@@ -9826,8 +10420,41 @@
       <c r="Z23" s="11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="2:26" ht="15.75" thickBot="1">
+      <c r="AB23" s="45" t="s">
+        <v>316</v>
+      </c>
+      <c r="AC23" s="45" t="s">
+        <v>317</v>
+      </c>
+      <c r="AD23" s="45" t="s">
+        <v>318</v>
+      </c>
+      <c r="AE23" s="45" t="s">
+        <v>319</v>
+      </c>
+      <c r="AF23" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="AG23" s="45" t="s">
+        <v>321</v>
+      </c>
+      <c r="AH23" s="45" t="s">
+        <v>322</v>
+      </c>
+      <c r="AI23" s="45" t="s">
+        <v>323</v>
+      </c>
+      <c r="AJ23" s="45" t="s">
+        <v>324</v>
+      </c>
+      <c r="AK23" s="45" t="s">
+        <v>325</v>
+      </c>
+      <c r="AL23" s="45" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="24" spans="2:38" ht="15.75" thickBot="1">
       <c r="B24" s="6">
         <v>9</v>
       </c>
@@ -9901,8 +10528,41 @@
       <c r="Z24" s="11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="2:26" ht="15.75" thickBot="1">
+      <c r="AB24" s="45" t="s">
+        <v>329</v>
+      </c>
+      <c r="AC24" s="45" t="s">
+        <v>330</v>
+      </c>
+      <c r="AD24" s="45" t="s">
+        <v>331</v>
+      </c>
+      <c r="AE24" s="45" t="s">
+        <v>332</v>
+      </c>
+      <c r="AF24" s="45" t="s">
+        <v>333</v>
+      </c>
+      <c r="AG24" s="45" t="s">
+        <v>334</v>
+      </c>
+      <c r="AH24" s="45" t="s">
+        <v>335</v>
+      </c>
+      <c r="AI24" s="45" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ24" s="45" t="s">
+        <v>337</v>
+      </c>
+      <c r="AK24" s="45" t="s">
+        <v>328</v>
+      </c>
+      <c r="AL24" s="45" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="25" spans="2:38" ht="15.75" thickBot="1">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -9921,7 +10581,7 @@
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
     </row>
-    <row r="26" spans="2:26" ht="15.75" thickBot="1">
+    <row r="26" spans="2:38" ht="15.75" thickBot="1">
       <c r="C26" s="7" t="s">
         <v>24</v>
       </c>
@@ -9957,7 +10617,7 @@
       </c>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:26">
+    <row r="27" spans="2:38">
       <c r="B27" s="4">
         <v>0</v>
       </c>
@@ -10029,7 +10689,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="2:26">
+    <row r="28" spans="2:38">
       <c r="B28" s="5">
         <v>1</v>
       </c>
@@ -10101,7 +10761,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="2:26">
+    <row r="29" spans="2:38">
       <c r="B29" s="5">
         <v>2</v>
       </c>
@@ -10173,7 +10833,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="2:26">
+    <row r="30" spans="2:38">
       <c r="B30" s="5">
         <v>3</v>
       </c>
@@ -10245,7 +10905,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="2:26">
+    <row r="31" spans="2:38">
       <c r="B31" s="5">
         <v>4</v>
       </c>
@@ -10317,7 +10977,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="2:26">
+    <row r="32" spans="2:38">
       <c r="B32" s="5">
         <v>5</v>
       </c>
@@ -12038,7 +12698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
